--- a/biology/Zoologie/Grand_Arachnothère/Grand_Arachnothère.xlsx
+++ b/biology/Zoologie/Grand_Arachnothère/Grand_Arachnothère.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Grand_Arachnoth%C3%A8re</t>
+          <t>Grand_Arachnothère</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arachnothera magna
 Le Grand Arachnothère (Arachnothera magna) est une espèce de passereau appartenant à la famille des Nectariniidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Grand_Arachnoth%C3%A8re</t>
+          <t>Grand_Arachnothère</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le grand arachnothère mesure environ 17 cm. 
-Il a un long bec incurvé qui lui permet, comme les colibris, de collecter du nectar[1] mais il mange aussi de nombreux insectes et araignées.
-C'est un oiseau habituellement solitaire ou vivant en couple[2].
+Il a un long bec incurvé qui lui permet, comme les colibris, de collecter du nectar mais il mange aussi de nombreux insectes et araignées.
+C'est un oiseau habituellement solitaire ou vivant en couple.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Grand_Arachnoth%C3%A8re</t>
+          <t>Grand_Arachnothère</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On trouve cet arachnothère en Inde, en Asie du Sud-Est continentale et dans le sud de la Chine. 
 Il aime les forêts tropicales à sous-bois dense avec une préférence pour les bananiers.
